--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H540"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6349,10 +6349,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6383,10 +6381,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6417,10 +6413,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6455,10 +6449,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6489,10 +6481,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6523,10 +6513,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6561,10 +6549,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6595,10 +6581,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6633,10 +6617,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6667,10 +6649,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6701,10 +6681,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6739,10 +6717,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6777,10 +6753,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6815,10 +6789,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -6853,10 +6825,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6891,10 +6861,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6929,10 +6897,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6967,10 +6933,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6997,10 +6961,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -7027,10 +6989,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7057,10 +7017,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7087,10 +7045,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7117,10 +7073,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7147,10 +7101,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7177,10 +7129,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7207,10 +7157,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7237,10 +7185,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7267,10 +7213,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7297,10 +7241,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7327,10 +7269,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7361,10 +7301,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7399,10 +7337,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7437,10 +7373,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7471,10 +7405,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -7505,10 +7437,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7539,10 +7469,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -7573,10 +7501,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7611,10 +7537,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7649,10 +7573,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7687,10 +7609,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7721,10 +7641,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7751,10 +7669,8 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7781,10 +7697,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7811,10 +7725,8 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7837,10 +7749,8 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -7871,10 +7781,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7905,10 +7813,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7943,10 +7849,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7981,10 +7885,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8019,10 +7921,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -8053,10 +7953,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -8083,10 +7981,8 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8113,10 +8009,8 @@
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8143,10 +8037,8 @@
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8177,10 +8069,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -8207,10 +8097,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8233,10 +8121,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8263,10 +8149,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8293,10 +8177,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8323,10 +8205,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8353,10 +8233,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8383,10 +8261,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8405,10 +8281,8 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8439,10 +8313,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8487,10 +8359,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8525,10 +8395,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -8563,10 +8431,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -8597,10 +8463,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8627,10 +8491,8 @@
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8657,10 +8519,8 @@
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8687,10 +8547,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8717,10 +8575,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8755,10 +8611,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -8789,10 +8643,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -8827,10 +8679,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -8865,10 +8715,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8903,10 +8751,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8933,10 +8779,8 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8967,10 +8811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -9001,10 +8843,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9035,10 +8875,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9069,10 +8907,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9103,10 +8939,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -9137,10 +8971,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9175,10 +9007,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -9209,10 +9039,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -9247,10 +9075,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -9277,10 +9103,8 @@
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -9307,10 +9131,8 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9345,10 +9167,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -9383,10 +9203,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9421,10 +9239,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -9455,10 +9271,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -9489,10 +9303,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9527,10 +9339,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -9565,10 +9375,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9599,10 +9407,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9633,10 +9439,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9663,10 +9467,8 @@
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -9693,10 +9495,8 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9727,10 +9527,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9761,10 +9559,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9795,10 +9591,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -9821,10 +9615,8 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9859,10 +9651,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -9893,10 +9683,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9927,10 +9715,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9965,10 +9751,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -9999,10 +9783,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -10033,10 +9815,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -10063,10 +9843,8 @@
       </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10101,10 +9879,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -10139,10 +9915,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10177,10 +9951,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -10211,10 +9983,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10245,10 +10015,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10279,10 +10047,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10313,10 +10079,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10347,10 +10111,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10377,10 +10139,8 @@
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10407,10 +10167,8 @@
       </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10433,10 +10191,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10467,10 +10223,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10493,10 +10247,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10519,10 +10271,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10563,10 +10313,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -10597,10 +10345,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10635,10 +10381,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -10669,10 +10413,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10707,10 +10449,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -10741,10 +10481,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10779,10 +10517,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -10817,10 +10553,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10851,10 +10585,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -10889,10 +10621,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10927,10 +10657,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10961,10 +10689,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -10991,10 +10717,8 @@
       </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -11021,10 +10745,8 @@
       </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11059,10 +10781,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -11097,10 +10817,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -11131,10 +10849,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11169,10 +10885,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11207,10 +10921,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11245,10 +10957,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11279,10 +10989,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11313,10 +11021,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11343,10 +11049,8 @@
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11377,10 +11081,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11407,10 +11109,8 @@
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11437,10 +11137,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11467,10 +11165,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11505,10 +11201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -11543,10 +11237,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11573,10 +11265,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -11599,10 +11289,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11625,10 +11313,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11651,10 +11337,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11677,10 +11361,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11715,10 +11397,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -11741,10 +11421,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11771,10 +11449,8 @@
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11801,10 +11477,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -11831,10 +11505,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11861,10 +11533,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11891,10 +11561,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11921,10 +11589,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11951,10 +11617,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11981,10 +11645,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12011,10 +11673,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12041,10 +11701,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12071,10 +11729,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12101,10 +11757,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12131,10 +11785,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12157,10 +11809,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12183,10 +11833,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12209,10 +11857,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12257,10 +11903,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12283,10 +11927,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H352" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -12321,10 +11963,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12359,10 +11999,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12393,10 +12031,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12419,10 +12055,8 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12449,10 +12083,8 @@
       </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12479,10 +12111,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12505,10 +12135,8 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12543,10 +12171,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -12581,10 +12207,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -12611,10 +12235,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12641,10 +12263,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12675,10 +12295,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12705,10 +12323,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12735,10 +12351,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12773,10 +12387,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H367" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -12803,10 +12415,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -12841,10 +12451,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -12871,10 +12479,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12901,10 +12507,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12931,10 +12535,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12961,10 +12563,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12991,10 +12591,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13029,10 +12627,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -13063,10 +12659,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -13093,10 +12687,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13123,10 +12715,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13153,10 +12743,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13183,10 +12771,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13213,10 +12799,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13247,10 +12831,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13281,10 +12863,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13315,10 +12895,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13341,10 +12919,8 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13375,10 +12951,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -13409,10 +12983,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13447,10 +13019,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -13485,10 +13055,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13523,10 +13091,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13561,10 +13127,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13595,10 +13159,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -13629,10 +13191,8 @@
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -13659,10 +13219,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13689,10 +13247,8 @@
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13715,10 +13271,8 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13749,10 +13303,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13783,10 +13335,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13809,10 +13359,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13847,10 +13395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13873,10 +13419,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13903,10 +13447,8 @@
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13929,10 +13471,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13955,10 +13495,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13985,10 +13523,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14011,10 +13547,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14037,10 +13571,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14063,10 +13595,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -14093,46 +13623,72 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr"/>
-      <c r="C410" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
       <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H411" t="inlineStr">
         <is>
           <t>2</t>
@@ -14142,53 +13698,65 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H413" t="inlineStr">
         <is>
           <t>3</t>
@@ -14198,229 +13766,241 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -14432,63 +14012,67 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -14500,177 +14084,181 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -14682,29 +14270,33 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -14716,27 +14308,31 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H429" t="inlineStr">
         <is>
           <t>3</t>
@@ -14746,83 +14342,103 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
-      <c r="E432" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
@@ -14832,97 +14448,101 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -14934,29 +14554,29 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -14968,29 +14588,29 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -15002,29 +14622,29 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15036,207 +14656,167 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -15246,37 +14826,29 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
           <t>3</t>
@@ -15284,183 +14856,143 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -15472,207 +15004,175 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$97.44B</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -15684,69 +15184,61 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
           <t>3</t>
@@ -15756,31 +15248,27 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15790,31 +15278,27 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15824,87 +15308,95 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15914,27 +15406,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15942,23 +15438,23 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
@@ -15968,29 +15464,25 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15998,29 +15490,25 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16028,29 +15516,33 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -16058,29 +15550,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16088,29 +15576,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16120,197 +15604,173 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr"/>
-      <c r="C471" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16318,287 +15778,279 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr"/>
-      <c r="C478" t="inlineStr"/>
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr"/>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16608,31 +16060,27 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16642,23 +16090,31 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16668,23 +16124,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16694,17 +16158,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -16720,31 +16184,23 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16754,23 +16210,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16780,23 +16244,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16806,27 +16278,31 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16836,23 +16312,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16866,49 +16342,53 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr"/>
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -16920,23 +16400,23 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
@@ -16946,23 +16426,23 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr"/>
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
@@ -16972,29 +16452,29 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
           <t>3</t>
@@ -17002,21 +16482,25 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
@@ -17030,21 +16514,41 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr"/>
-      <c r="C502" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -17054,13 +16558,13 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
@@ -17074,125 +16578,125 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
@@ -17202,27 +16706,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -17232,25 +16740,21 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
@@ -17262,23 +16766,23 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17290,33 +16794,25 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17326,57 +16822,45 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H513" t="inlineStr">
         <is>
           <t>3</t>
@@ -17386,23 +16870,31 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17412,29 +16904,29 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -17446,29 +16938,29 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -17480,718 +16972,50 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" t="inlineStr">
+        <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr"/>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr"/>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13655,10 +13655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -13689,10 +13687,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13723,10 +13719,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13757,10 +13751,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13791,10 +13783,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13825,10 +13815,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13863,10 +13851,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13901,10 +13887,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13935,10 +13919,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13969,10 +13951,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14003,10 +13983,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14037,10 +14015,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14075,10 +14051,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14113,10 +14087,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14151,10 +14123,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14189,10 +14159,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14227,10 +14195,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14261,10 +14227,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14299,10 +14263,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14333,10 +14295,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14367,10 +14327,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14405,10 +14363,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14439,10 +14395,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14473,10 +14427,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14511,10 +14463,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14545,10 +14495,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14579,10 +14527,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14613,10 +14559,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14647,10 +14591,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14673,10 +14615,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14703,10 +14643,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14733,10 +14671,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14759,10 +14695,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14789,10 +14723,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14819,10 +14751,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14849,10 +14779,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14879,10 +14807,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14909,10 +14835,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14961,10 +14885,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14995,10 +14917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15033,10 +14953,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15067,10 +14985,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15097,10 +15013,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15127,276 +15041,262 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15406,31 +15306,27 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15440,23 +15336,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15466,23 +15370,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15492,17 +15404,17 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -15518,31 +15430,23 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15552,23 +15456,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15578,23 +15490,31 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -15604,27 +15524,31 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -15634,23 +15558,23 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15664,49 +15588,53 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
@@ -15718,23 +15646,23 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
@@ -15744,23 +15672,23 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
@@ -15770,29 +15698,29 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15800,21 +15728,25 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -15828,21 +15760,41 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr"/>
-      <c r="C479" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15852,13 +15804,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15872,125 +15824,125 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16000,27 +15952,31 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16030,25 +15986,21 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
@@ -16060,23 +16012,23 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16088,33 +16040,25 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
       <c r="B488" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16124,57 +16068,45 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16184,23 +16116,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16210,29 +16150,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16244,29 +16184,29 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -16278,744 +16218,50 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr">
+        <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>WPI Manufacturing YoYDEC</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr"/>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr"/>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr"/>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6195,10 +6195,8 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -6235,10 +6233,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6261,10 +6257,8 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6295,10 +6289,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -6321,10 +6313,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6369,10 +6359,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -6403,10 +6391,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6441,10 +6427,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6475,10 +6459,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6509,10 +6491,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6547,10 +6527,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6581,10 +6559,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6615,10 +6591,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6653,10 +6627,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6687,10 +6659,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6725,10 +6695,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6759,10 +6727,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6793,10 +6759,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6831,10 +6795,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6869,10 +6831,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6907,10 +6867,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6945,10 +6903,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6983,10 +6939,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7021,10 +6975,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7059,10 +7011,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7089,10 +7039,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7119,10 +7067,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7149,10 +7095,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7179,10 +7123,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7209,10 +7151,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7239,10 +7179,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7269,10 +7207,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7299,10 +7235,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7329,10 +7263,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7359,10 +7291,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7389,10 +7319,8 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7419,10 +7347,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7453,10 +7379,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7491,10 +7415,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7529,10 +7451,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7563,10 +7483,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7597,10 +7515,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -7631,10 +7547,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7665,10 +7579,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7703,10 +7615,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7741,10 +7651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7779,10 +7687,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7813,10 +7719,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7843,10 +7747,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7873,10 +7775,8 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7903,10 +7803,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7929,10 +7827,8 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7963,10 +7859,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7997,10 +7891,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8035,10 +7927,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8073,10 +7963,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8111,10 +7999,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8145,10 +8031,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8175,10 +8059,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8205,10 +8087,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8235,10 +8115,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8269,10 +8147,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8299,10 +8175,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8325,10 +8199,8 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8355,10 +8227,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8385,10 +8255,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8415,10 +8283,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8445,10 +8311,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8475,10 +8339,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8497,10 +8359,8 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8531,10 +8391,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8579,10 +8437,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8617,10 +8473,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8655,10 +8509,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -8689,10 +8541,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8719,10 +8569,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8749,10 +8597,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8779,10 +8625,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8809,10 +8653,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8847,10 +8689,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8881,10 +8721,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8919,10 +8757,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8957,10 +8793,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8995,10 +8829,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9025,10 +8857,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9059,10 +8889,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9093,10 +8921,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9127,10 +8953,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9161,10 +8985,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9195,10 +9017,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9229,10 +9049,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9267,10 +9085,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9301,10 +9117,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9339,10 +9153,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9369,10 +9181,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9399,10 +9209,8 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9437,10 +9245,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -9475,10 +9281,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9513,10 +9317,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -9547,10 +9349,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9581,10 +9381,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9619,10 +9417,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9657,10 +9453,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9691,10 +9485,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9725,10 +9517,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9755,10 +9545,8 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9785,10 +9573,8 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9819,10 +9605,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9853,10 +9637,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9887,10 +9669,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9913,10 +9693,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -9951,10 +9729,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9985,10 +9761,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10019,10 +9793,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10057,10 +9829,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10091,10 +9861,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -10125,10 +9893,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -10155,10 +9921,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10193,10 +9957,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10231,10 +9993,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10269,10 +10029,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10303,10 +10061,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10337,10 +10093,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10371,10 +10125,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10405,10 +10157,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10439,10 +10189,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10469,10 +10217,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10499,10 +10245,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10525,10 +10269,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10559,10 +10301,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10585,10 +10325,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -10611,10 +10349,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10655,10 +10391,8 @@
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10689,10 +10423,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10727,10 +10459,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10761,10 +10491,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10799,10 +10527,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H305" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -10833,10 +10559,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10871,10 +10595,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10909,10 +10631,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10943,10 +10663,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10981,10 +10699,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -11019,10 +10735,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -11053,10 +10767,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11083,10 +10795,8 @@
       </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11113,10 +10823,8 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11151,10 +10859,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -11189,10 +10895,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -11223,10 +10927,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11261,10 +10963,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11299,10 +10999,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11337,10 +11035,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11371,10 +11067,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11405,10 +11099,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11435,10 +11127,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11469,10 +11159,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11499,10 +11187,8 @@
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11529,10 +11215,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11559,10 +11243,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11597,10 +11279,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11635,10 +11315,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11665,10 +11343,8 @@
       </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11691,10 +11367,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11717,10 +11391,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11743,10 +11415,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11769,10 +11439,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11807,10 +11475,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -11833,10 +11499,8 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11863,10 +11527,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11893,10 +11555,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -11923,10 +11583,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11953,10 +11611,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11983,10 +11639,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12013,10 +11667,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12043,10 +11695,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12073,10 +11723,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12103,10 +11751,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12133,10 +11779,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12163,10 +11807,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12193,10 +11835,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12223,10 +11863,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12249,10 +11887,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12275,10 +11911,8 @@
       </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12301,10 +11935,8 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12349,10 +11981,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12375,10 +12005,8 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H355" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -12413,10 +12041,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12451,10 +12077,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12485,10 +12109,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12515,10 +12137,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12541,10 +12161,8 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12567,10 +12185,8 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12597,10 +12213,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12635,10 +12249,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -12673,10 +12285,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -12703,10 +12313,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12733,10 +12341,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12767,10 +12373,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12797,10 +12401,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12827,10 +12429,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12865,10 +12465,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H370" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -12895,10 +12493,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12933,10 +12529,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12963,10 +12557,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12993,10 +12585,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13023,10 +12613,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13053,10 +12641,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13083,10 +12669,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13121,10 +12705,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -13155,10 +12737,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -13185,10 +12765,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13215,10 +12793,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13245,10 +12821,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13275,10 +12849,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13305,10 +12877,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13339,10 +12909,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13373,10 +12941,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13407,10 +12973,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13433,10 +12997,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13467,10 +13029,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13501,10 +13061,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13539,10 +13097,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -13577,10 +13133,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13615,10 +13169,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13653,10 +13205,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13687,10 +13237,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13721,10 +13269,8 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13751,10 +13297,8 @@
       </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13781,10 +13325,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13807,10 +13349,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13841,10 +13381,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13875,10 +13413,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13901,10 +13437,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13939,10 +13473,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13965,10 +13497,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13995,10 +13525,8 @@
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14021,10 +13549,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14047,10 +13573,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14077,10 +13601,8 @@
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14103,10 +13625,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14129,10 +13649,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14155,10 +13673,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -14185,46 +13701,72 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr"/>
-      <c r="C413" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H414" t="inlineStr">
         <is>
           <t>2</t>
@@ -14234,53 +13776,65 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H416" t="inlineStr">
         <is>
           <t>3</t>
@@ -14290,229 +13844,241 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr"/>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -14524,63 +14090,67 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14592,177 +14162,181 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -14774,29 +14348,33 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14808,27 +14386,31 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
@@ -14838,83 +14420,103 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
           <t>3</t>
@@ -14924,97 +14526,101 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15026,29 +14632,29 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15060,29 +14666,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15094,29 +14700,29 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -15128,207 +14734,167 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -15338,37 +14904,29 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -15376,183 +14934,143 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15564,207 +15082,175 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$97.44B</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -15776,69 +15262,61 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15848,31 +15326,27 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15882,31 +15356,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15916,87 +15386,95 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -16006,27 +15484,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16034,23 +15516,23 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
@@ -16060,29 +15542,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16090,29 +15568,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16120,29 +15594,33 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G471" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -16150,29 +15628,25 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
           <t>3</t>
@@ -16180,29 +15654,25 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -16212,197 +15682,173 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16410,287 +15856,279 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16700,31 +16138,27 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16734,23 +16168,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16760,23 +16202,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16786,17 +16236,17 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
@@ -16812,31 +16262,23 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16846,23 +16288,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16872,23 +16322,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16898,27 +16356,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16928,23 +16390,23 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
@@ -16958,49 +16420,53 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
@@ -17012,23 +16478,23 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
@@ -17038,23 +16504,23 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
@@ -17064,29 +16530,29 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
           <t>3</t>
@@ -17094,21 +16560,25 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17122,21 +16592,41 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr"/>
-      <c r="C505" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -17146,13 +16636,13 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
@@ -17166,125 +16656,125 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -17294,27 +16784,31 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17324,25 +16818,21 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr">
@@ -17354,23 +16844,23 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
@@ -17382,33 +16872,25 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17418,57 +16900,45 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
       <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
           <t>3</t>
@@ -17478,23 +16948,31 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -17504,29 +16982,29 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -17538,29 +17016,29 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -17572,117 +17050,113 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
@@ -17694,624 +17168,28 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
+      <c r="A524" t="inlineStr"/>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>1.200%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>5-Year Bobl Auction</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr"/>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr"/>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6349,10 +6349,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6383,10 +6381,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6417,10 +6413,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6455,10 +6449,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6489,10 +6481,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6523,10 +6513,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6561,10 +6549,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6595,10 +6581,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6633,10 +6617,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6667,10 +6649,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6701,10 +6681,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6739,10 +6717,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6777,10 +6753,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6815,10 +6789,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -6853,10 +6825,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6891,10 +6861,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6929,10 +6897,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6967,10 +6933,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6997,10 +6961,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -7027,10 +6989,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7057,10 +7017,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7087,10 +7045,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7117,10 +7073,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7147,10 +7101,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7177,10 +7129,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7207,10 +7157,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7237,10 +7185,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7267,10 +7213,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7297,10 +7241,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7327,10 +7269,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7361,10 +7301,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7399,10 +7337,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7437,10 +7373,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7471,10 +7405,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -7505,10 +7437,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7539,10 +7469,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -7573,10 +7501,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7611,10 +7537,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7649,10 +7573,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7687,10 +7609,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7721,10 +7641,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7751,10 +7669,8 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7781,10 +7697,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7811,10 +7725,8 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7837,10 +7749,8 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -7871,10 +7781,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7905,10 +7813,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7943,10 +7849,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7981,10 +7885,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8019,10 +7921,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -8053,10 +7953,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -8083,10 +7981,8 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8113,10 +8009,8 @@
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8143,10 +8037,8 @@
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8177,10 +8069,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -8207,10 +8097,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8233,10 +8121,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8263,10 +8149,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8293,10 +8177,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8323,10 +8205,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8353,10 +8233,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8383,10 +8261,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8405,10 +8281,8 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8439,10 +8313,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8487,10 +8359,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8525,10 +8395,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -8563,10 +8431,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -8597,10 +8463,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8627,10 +8491,8 @@
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8657,10 +8519,8 @@
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8687,10 +8547,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8717,10 +8575,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8755,10 +8611,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -8789,10 +8643,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -8827,10 +8679,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -8865,10 +8715,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8903,10 +8751,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8933,10 +8779,8 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8967,10 +8811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -9001,10 +8843,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9035,10 +8875,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9069,10 +8907,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9103,10 +8939,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -9137,10 +8971,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9175,10 +9007,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -9209,10 +9039,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -9247,10 +9075,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -9277,10 +9103,8 @@
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -9307,10 +9131,8 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9345,10 +9167,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -9383,10 +9203,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9421,10 +9239,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -9455,10 +9271,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -9489,10 +9303,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9527,10 +9339,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -9565,10 +9375,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9599,10 +9407,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9633,10 +9439,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9663,10 +9467,8 @@
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -9693,10 +9495,8 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9727,10 +9527,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9761,10 +9559,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9795,10 +9591,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -9821,10 +9615,8 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9859,10 +9651,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -9893,10 +9683,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9927,10 +9715,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9965,10 +9751,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -9999,10 +9783,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -10033,10 +9815,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -10063,10 +9843,8 @@
       </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10101,10 +9879,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -10139,10 +9915,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10177,10 +9951,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -10211,10 +9983,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10245,10 +10015,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10279,10 +10047,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10313,10 +10079,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10347,10 +10111,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10377,10 +10139,8 @@
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10407,10 +10167,8 @@
       </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10433,10 +10191,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10467,10 +10223,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10493,10 +10247,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10519,10 +10271,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10563,10 +10313,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -10597,10 +10345,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10635,10 +10381,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -10669,10 +10413,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10707,10 +10449,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -10741,10 +10481,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10779,10 +10517,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -10817,10 +10553,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10851,10 +10585,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -10889,10 +10621,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10927,10 +10657,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10961,10 +10689,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -10991,10 +10717,8 @@
       </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -11021,10 +10745,8 @@
       </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11059,10 +10781,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -11097,10 +10817,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -11131,10 +10849,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11169,10 +10885,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11207,10 +10921,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11245,10 +10957,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11279,10 +10989,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11313,10 +11021,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11343,10 +11049,8 @@
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11377,10 +11081,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11407,10 +11109,8 @@
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11437,10 +11137,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11467,10 +11165,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11505,10 +11201,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -11543,10 +11237,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11573,10 +11265,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -11599,10 +11289,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -11625,10 +11313,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11651,10 +11337,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11677,10 +11361,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11715,10 +11397,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -11741,10 +11421,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11771,10 +11449,8 @@
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11801,10 +11477,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -11831,10 +11505,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11861,10 +11533,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11891,10 +11561,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11921,10 +11589,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11951,10 +11617,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11981,10 +11645,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12011,10 +11673,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12041,10 +11701,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12071,10 +11729,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12101,10 +11757,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12131,10 +11785,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12157,10 +11809,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12183,10 +11833,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12209,10 +11857,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12257,10 +11903,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12283,10 +11927,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H352" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -12321,10 +11963,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12359,10 +11999,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12393,10 +12031,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12423,10 +12059,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12449,10 +12083,8 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12475,10 +12107,8 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12505,10 +12135,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12543,10 +12171,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H360" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -12581,10 +12207,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -12611,10 +12235,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12641,10 +12263,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12675,10 +12295,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12705,10 +12323,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12735,10 +12351,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12773,10 +12387,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H367" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -12803,10 +12415,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -12841,10 +12451,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -12871,10 +12479,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12901,10 +12507,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12931,10 +12535,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12961,10 +12563,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12991,10 +12591,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13029,10 +12627,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -13063,10 +12659,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -13093,10 +12687,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13123,10 +12715,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13153,10 +12743,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13183,10 +12771,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13213,10 +12799,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13247,10 +12831,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13281,10 +12863,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13315,10 +12895,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13341,10 +12919,8 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13375,10 +12951,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -13409,10 +12983,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13447,10 +13019,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -13485,10 +13055,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13523,10 +13091,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13561,10 +13127,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13595,10 +13159,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -13629,10 +13191,8 @@
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -13659,10 +13219,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13689,10 +13247,8 @@
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13715,10 +13271,8 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13749,10 +13303,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13783,10 +13335,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13809,10 +13359,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13847,10 +13395,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13873,10 +13419,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13903,10 +13447,8 @@
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13929,10 +13471,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13955,10 +13495,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13985,10 +13523,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14011,10 +13547,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14037,10 +13571,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14063,10 +13595,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -14093,46 +13623,72 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr"/>
-      <c r="C410" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
       <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H411" t="inlineStr">
         <is>
           <t>2</t>
@@ -14142,53 +13698,65 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H413" t="inlineStr">
         <is>
           <t>3</t>
@@ -14198,229 +13766,241 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -14432,63 +14012,67 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -14500,177 +14084,181 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -14682,29 +14270,33 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -14716,27 +14308,31 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H429" t="inlineStr">
         <is>
           <t>3</t>
@@ -14746,83 +14342,103 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
-      <c r="E432" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
@@ -14832,97 +14448,101 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -14934,29 +14554,29 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -14968,29 +14588,29 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -15002,29 +14622,29 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15036,207 +14656,167 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -15246,37 +14826,29 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
           <t>3</t>
@@ -15284,183 +14856,143 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -15472,207 +15004,175 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$97.44B</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="E455" t="inlineStr"/>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -15684,69 +15184,61 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
           <t>3</t>
@@ -15756,31 +15248,27 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15790,31 +15278,27 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15824,87 +15308,95 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15914,27 +15406,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15942,23 +15438,23 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
@@ -15968,29 +15464,25 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15998,29 +15490,25 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16028,29 +15516,33 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -16058,29 +15550,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16088,29 +15576,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16120,197 +15604,173 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr"/>
-      <c r="C471" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16318,287 +15778,279 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr"/>
-      <c r="C478" t="inlineStr"/>
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr"/>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16608,31 +16060,27 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16642,23 +16090,31 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16668,23 +16124,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16694,17 +16158,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -16720,31 +16184,23 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E491" t="inlineStr"/>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16754,23 +16210,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16780,23 +16244,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16806,27 +16278,31 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16836,23 +16312,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16866,49 +16342,53 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr"/>
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -16920,23 +16400,23 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
@@ -16946,23 +16426,23 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr"/>
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
@@ -16972,29 +16452,29 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
           <t>3</t>
@@ -17002,21 +16482,25 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
@@ -17030,21 +16514,41 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr"/>
-      <c r="C502" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
-      <c r="H502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -17054,13 +16558,13 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
@@ -17074,125 +16578,125 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
@@ -17202,27 +16706,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -17232,25 +16740,21 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
@@ -17262,23 +16766,23 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17290,33 +16794,25 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17326,57 +16822,45 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H513" t="inlineStr">
         <is>
           <t>3</t>
@@ -17386,23 +16870,31 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17412,29 +16904,29 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -17446,29 +16938,29 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -17480,117 +16972,113 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
@@ -17604,21 +17092,25 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
@@ -17628,23 +17120,23 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>03:10 PM</t>
-        </is>
-      </c>
+      <c r="A522" t="inlineStr"/>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
@@ -17654,29 +17146,29 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A523" t="inlineStr"/>
       <c r="B523" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H523" t="inlineStr">
         <is>
           <t>3</t>
@@ -17684,29 +17176,29 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A524" t="inlineStr"/>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
@@ -17714,604 +17206,30 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A525" t="inlineStr"/>
       <c r="B525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>Core PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>Core PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>PPIDEC</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>146.493</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/11</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:35 PM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr"/>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr"/>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>166%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>$4.42B</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr"/>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr"/>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13655,10 +13655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -13689,10 +13687,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13723,10 +13719,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13757,10 +13751,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13791,10 +13783,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13825,10 +13815,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13863,10 +13851,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13901,10 +13887,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13935,10 +13919,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13969,10 +13951,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14003,10 +13983,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14037,10 +14015,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14075,10 +14051,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14113,10 +14087,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14151,10 +14123,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14189,10 +14159,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14227,10 +14195,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14261,10 +14227,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14299,10 +14263,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14333,10 +14295,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14367,10 +14327,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14405,10 +14363,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14439,10 +14395,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14473,10 +14427,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14511,10 +14463,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14545,10 +14495,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14579,10 +14527,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14613,10 +14559,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14647,10 +14591,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14673,10 +14615,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14703,10 +14643,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14733,10 +14671,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14759,10 +14695,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14789,10 +14723,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14819,10 +14751,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14849,10 +14779,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14879,10 +14807,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14909,10 +14835,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14961,10 +14885,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14995,10 +14917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15033,10 +14953,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15067,10 +14985,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15097,10 +15013,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15127,276 +15041,262 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15406,31 +15306,27 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15440,23 +15336,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15466,23 +15370,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15492,17 +15404,17 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -15518,31 +15430,23 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15552,23 +15456,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15578,23 +15490,31 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -15604,27 +15524,31 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -15634,23 +15558,23 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15664,49 +15588,53 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
@@ -15718,23 +15646,23 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
@@ -15744,23 +15672,23 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
@@ -15770,29 +15698,29 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15800,21 +15728,25 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -15828,21 +15760,41 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr"/>
-      <c r="C479" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15852,13 +15804,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15872,125 +15824,125 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16000,27 +15952,31 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16030,25 +15986,21 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
@@ -16060,23 +16012,23 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16088,33 +16040,25 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
       <c r="B488" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16124,57 +16068,45 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16184,23 +16116,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16210,29 +16150,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16244,29 +16184,29 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -16278,117 +16218,113 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -16402,21 +16338,25 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
@@ -16428,23 +16368,31 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
           <t>3</t>
@@ -16454,37 +16402,41 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -16494,49 +16446,53 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -16548,27 +16504,31 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H503" t="inlineStr">
         <is>
           <t>2</t>
@@ -16578,63 +16538,63 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -16646,27 +16606,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16676,27 +16640,31 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
@@ -16706,29 +16674,29 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -16740,23 +16708,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16766,27 +16742,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16794,25 +16774,33 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -16822,43 +16810,59 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr"/>
-      <c r="C512" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr"/>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -16868,33 +16872,25 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>116.0%</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -16902,31 +16898,27 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A515" t="inlineStr"/>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -16936,31 +16928,27 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A516" t="inlineStr"/>
       <c r="B516" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -16970,266 +16958,30 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
+      <c r="A517" t="inlineStr"/>
       <c r="B517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>$4.42B</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>Machine Tool Orders YoYDEC</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr"/>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr"/>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr"/>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr"/>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H576"/>
+  <dimension ref="A1:H554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6233,10 +6233,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6259,10 +6257,8 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6297,10 +6293,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -6323,10 +6317,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6371,10 +6363,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -6405,10 +6395,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6443,10 +6431,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6477,10 +6463,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6511,10 +6495,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6549,10 +6531,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6583,10 +6563,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6617,10 +6595,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6655,10 +6631,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6689,10 +6663,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6727,10 +6699,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6761,10 +6731,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6795,10 +6763,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6833,10 +6799,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6871,10 +6835,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6909,10 +6871,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6947,10 +6907,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6985,10 +6943,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7023,10 +6979,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7061,10 +7015,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7091,10 +7043,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7121,10 +7071,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7151,10 +7099,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7181,10 +7127,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7211,10 +7155,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7241,10 +7183,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7271,10 +7211,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7301,10 +7239,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7331,10 +7267,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7361,10 +7295,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7391,10 +7323,8 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7421,10 +7351,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7455,10 +7383,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7493,10 +7419,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7531,10 +7455,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7565,10 +7487,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7599,10 +7519,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -7633,10 +7551,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7667,10 +7583,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7705,10 +7619,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7743,10 +7655,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7781,10 +7691,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7815,10 +7723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7845,10 +7751,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7875,10 +7779,8 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7905,10 +7807,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7931,10 +7831,8 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7965,10 +7863,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7999,10 +7895,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8037,10 +7931,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8075,10 +7967,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8113,10 +8003,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8147,10 +8035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8177,10 +8063,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8207,10 +8091,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8237,10 +8119,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8271,10 +8151,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8301,10 +8179,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8327,10 +8203,8 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8357,10 +8231,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8387,10 +8259,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8417,10 +8287,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8447,10 +8315,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8477,10 +8343,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8499,10 +8363,8 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8533,10 +8395,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8581,10 +8441,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8619,10 +8477,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8657,10 +8513,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -8691,10 +8545,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8721,10 +8573,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8751,10 +8601,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8781,10 +8629,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8811,10 +8657,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8849,10 +8693,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8883,10 +8725,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8921,10 +8761,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8959,10 +8797,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -8997,10 +8833,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9027,10 +8861,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9061,10 +8893,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9095,10 +8925,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9129,10 +8957,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9163,10 +8989,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9197,10 +9021,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9231,10 +9053,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9269,10 +9089,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9303,10 +9121,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9341,10 +9157,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9371,10 +9185,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9401,10 +9213,8 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9439,10 +9249,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -9477,10 +9285,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9515,10 +9321,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -9549,10 +9353,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9583,10 +9385,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9621,10 +9421,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9659,10 +9457,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9693,10 +9489,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9727,10 +9521,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9757,10 +9549,8 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9787,10 +9577,8 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9821,10 +9609,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9855,10 +9641,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9889,10 +9673,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9915,10 +9697,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -9953,10 +9733,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9987,10 +9765,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10021,10 +9797,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10059,10 +9833,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10093,10 +9865,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -10127,10 +9897,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -10157,10 +9925,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10195,10 +9961,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10233,10 +9997,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10271,10 +10033,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10305,10 +10065,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10339,10 +10097,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10373,10 +10129,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10407,10 +10161,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10441,10 +10193,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10471,10 +10221,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10501,10 +10249,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10527,10 +10273,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10561,10 +10305,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10587,10 +10329,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -10613,10 +10353,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10657,10 +10395,8 @@
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10691,10 +10427,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10729,10 +10463,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10763,10 +10495,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10801,10 +10531,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H305" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -10835,10 +10563,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10873,10 +10599,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10911,10 +10635,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10945,10 +10667,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10983,10 +10703,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -11021,10 +10739,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -11055,10 +10771,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11085,10 +10799,8 @@
       </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11115,10 +10827,8 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11153,10 +10863,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -11191,10 +10899,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -11225,10 +10931,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11263,10 +10967,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11301,10 +11003,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11339,10 +11039,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11373,10 +11071,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11407,10 +11103,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11437,10 +11131,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11471,10 +11163,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11501,10 +11191,8 @@
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11531,10 +11219,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11561,10 +11247,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11599,10 +11283,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11637,10 +11319,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11667,10 +11347,8 @@
       </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11693,10 +11371,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11719,10 +11395,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11745,10 +11419,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11771,10 +11443,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11809,10 +11479,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -11835,10 +11503,8 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11865,10 +11531,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11895,10 +11559,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -11925,10 +11587,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11955,10 +11615,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11985,10 +11643,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12015,10 +11671,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12045,10 +11699,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12075,10 +11727,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12105,10 +11755,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12135,10 +11783,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12165,10 +11811,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12195,10 +11839,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12225,10 +11867,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12251,10 +11891,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12277,10 +11915,8 @@
       </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12303,10 +11939,8 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12351,10 +11985,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12377,10 +12009,8 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H355" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -12415,10 +12045,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12453,10 +12081,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12487,10 +12113,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12513,10 +12137,8 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12543,10 +12165,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12573,10 +12193,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12599,10 +12217,8 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12637,10 +12253,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H363" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -12675,10 +12289,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -12705,10 +12317,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12735,10 +12345,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12769,10 +12377,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12799,10 +12405,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12829,10 +12433,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12867,10 +12469,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H370" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -12897,10 +12497,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12935,10 +12533,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12965,10 +12561,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12995,10 +12589,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13025,10 +12617,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13055,10 +12645,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13085,10 +12673,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13123,10 +12709,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -13157,10 +12741,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -13187,10 +12769,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13217,10 +12797,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13247,10 +12825,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13277,10 +12853,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13307,10 +12881,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13341,10 +12913,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13375,10 +12945,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13409,10 +12977,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13435,10 +13001,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13469,10 +13033,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13503,10 +13065,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13541,10 +13101,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -13579,10 +13137,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13617,10 +13173,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13655,10 +13209,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13689,10 +13241,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13723,10 +13273,8 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13753,10 +13301,8 @@
       </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13783,10 +13329,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13809,10 +13353,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13843,10 +13385,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13877,10 +13417,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13903,10 +13441,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13941,10 +13477,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13967,10 +13501,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13997,10 +13529,8 @@
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14023,10 +13553,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14049,10 +13577,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14079,10 +13605,8 @@
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14105,10 +13629,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14131,10 +13653,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14157,10 +13677,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -14187,46 +13705,72 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr"/>
-      <c r="C413" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H414" t="inlineStr">
         <is>
           <t>2</t>
@@ -14236,53 +13780,65 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H416" t="inlineStr">
         <is>
           <t>3</t>
@@ -14292,229 +13848,241 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr"/>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -14526,63 +14094,67 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14594,177 +14166,181 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -14776,29 +14352,33 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14810,27 +14390,31 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
@@ -14840,83 +14424,103 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
           <t>3</t>
@@ -14926,97 +14530,101 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15028,29 +14636,29 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15062,29 +14670,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15096,29 +14704,29 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -15130,207 +14738,167 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -15340,37 +14908,29 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -15378,183 +14938,143 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15566,207 +15086,175 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$97.44B</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -15778,69 +15266,61 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15850,31 +15330,27 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15884,31 +15360,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15918,87 +15390,95 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -16008,27 +15488,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16036,23 +15520,23 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
@@ -16062,29 +15546,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16092,29 +15572,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16122,29 +15598,33 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G471" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -16152,29 +15632,25 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
           <t>3</t>
@@ -16182,29 +15658,25 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -16214,197 +15686,173 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16412,287 +15860,279 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16702,31 +16142,27 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16736,23 +16172,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16762,23 +16206,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16788,17 +16240,17 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
@@ -16814,31 +16266,23 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16848,23 +16292,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16874,23 +16326,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16900,27 +16360,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16930,23 +16394,23 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
@@ -16960,49 +16424,53 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
@@ -17014,23 +16482,23 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
@@ -17040,23 +16508,23 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
@@ -17066,29 +16534,29 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
           <t>3</t>
@@ -17096,21 +16564,25 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17124,21 +16596,41 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr"/>
-      <c r="C505" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -17148,13 +16640,13 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
@@ -17168,125 +16660,125 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -17296,27 +16788,31 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -17326,25 +16822,21 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr">
@@ -17356,23 +16848,23 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
@@ -17384,33 +16876,25 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17420,57 +16904,45 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
       <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
           <t>3</t>
@@ -17480,23 +16952,31 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -17506,29 +16986,29 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -17540,29 +17020,29 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -17574,117 +17054,113 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
@@ -17698,21 +17174,25 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
@@ -17724,23 +17204,31 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
@@ -17750,37 +17238,41 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17790,49 +17282,53 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -17844,27 +17340,31 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H529" t="inlineStr">
         <is>
           <t>2</t>
@@ -17874,63 +17374,63 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -17942,27 +17442,31 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17972,27 +17476,31 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -18002,29 +17510,29 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -18036,23 +17544,31 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H535" t="inlineStr">
         <is>
           <t>3</t>
@@ -18062,27 +17578,31 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H536" t="inlineStr">
         <is>
           <t>3</t>
@@ -18090,25 +17610,33 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr"/>
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H537" t="inlineStr">
         <is>
           <t>3</t>
@@ -18118,43 +17646,59 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr"/>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -18166,99 +17710,95 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
           <t>3</t>
@@ -18268,87 +17808,99 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H545" t="inlineStr">
         <is>
           <t>3</t>
@@ -18358,27 +17910,35 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H546" t="inlineStr">
         <is>
           <t>3</t>
@@ -18388,27 +17948,35 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H547" t="inlineStr">
         <is>
           <t>3</t>
@@ -18418,29 +17986,29 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -18452,7 +18020,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -18462,87 +18030,75 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A551" t="inlineStr"/>
       <c r="B551" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -18552,820 +18108,84 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr"/>
       <c r="B552" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
       <c r="G552" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A553" t="inlineStr"/>
       <c r="B553" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A554" t="inlineStr"/>
       <c r="B554" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>PPI Core Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>PPI Core Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>PPI Input MoMDEC</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>PPI Input YoYDEC</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>PPI Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>PPI Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>Retail Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr"/>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>Retail Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr"/>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr"/>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr"/>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr"/>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H578"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6349,10 +6349,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6387,10 +6385,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -6421,10 +6417,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6455,10 +6449,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -6493,10 +6485,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -6527,10 +6517,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6561,10 +6549,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6599,10 +6585,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6633,10 +6617,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6671,10 +6653,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H180" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -6705,10 +6685,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6739,10 +6717,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6777,10 +6753,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6815,10 +6789,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6853,10 +6825,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6891,10 +6861,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6929,10 +6897,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6967,10 +6933,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -7005,10 +6969,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7035,10 +6997,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7065,10 +7025,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7095,10 +7053,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7125,10 +7081,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7155,10 +7109,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7185,10 +7137,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7215,10 +7165,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7245,10 +7193,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7275,10 +7221,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7305,10 +7249,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7335,10 +7277,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7365,10 +7305,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7399,10 +7337,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7437,10 +7373,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H203" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -7475,10 +7409,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7509,10 +7441,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7543,10 +7473,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -7577,10 +7505,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7611,10 +7537,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7649,10 +7573,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -7687,10 +7609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -7725,10 +7645,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7759,10 +7677,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7789,10 +7705,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7819,10 +7733,8 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7849,10 +7761,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7875,10 +7785,8 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7909,10 +7817,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7943,10 +7849,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7981,10 +7885,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8019,10 +7921,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -8057,10 +7957,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8091,10 +7989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8121,10 +8017,8 @@
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8151,10 +8045,8 @@
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8181,10 +8073,8 @@
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8215,10 +8105,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -8245,10 +8133,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8271,10 +8157,8 @@
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8301,10 +8185,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8331,10 +8213,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8361,10 +8241,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8391,10 +8269,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8421,10 +8297,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8443,10 +8317,8 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8477,10 +8349,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8525,10 +8395,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8563,10 +8431,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -8601,10 +8467,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -8635,10 +8499,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8665,10 +8527,8 @@
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8695,10 +8555,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8725,10 +8583,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8755,10 +8611,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8793,10 +8647,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -8827,10 +8679,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -8865,10 +8715,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H247" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -8903,10 +8751,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8941,10 +8787,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8971,10 +8815,8 @@
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -9005,10 +8847,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9039,10 +8879,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9073,10 +8911,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9107,10 +8943,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9141,10 +8975,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -9175,10 +9007,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9213,10 +9043,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9247,10 +9075,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9285,10 +9111,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -9315,10 +9139,8 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9345,10 +9167,8 @@
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -9383,10 +9203,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9421,10 +9239,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -9459,10 +9275,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -9493,10 +9307,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -9527,10 +9339,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -9565,10 +9375,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -9603,10 +9411,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -9637,10 +9443,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9671,10 +9475,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -9701,10 +9503,8 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9731,10 +9531,8 @@
       </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9765,10 +9563,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9799,10 +9595,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9833,10 +9627,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9859,10 +9651,8 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9897,10 +9687,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H277" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -9931,10 +9719,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9965,10 +9751,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -10003,10 +9787,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -10037,10 +9819,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -10071,10 +9851,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10101,10 +9879,8 @@
       </c>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -10139,10 +9915,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10177,10 +9951,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -10215,10 +9987,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10249,10 +10019,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10283,10 +10051,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10317,10 +10083,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10351,10 +10115,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10385,10 +10147,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10415,10 +10175,8 @@
       </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10445,10 +10203,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10471,10 +10227,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10505,10 +10259,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10531,10 +10283,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10557,10 +10307,8 @@
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10601,10 +10349,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -10635,10 +10381,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10673,10 +10417,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10707,10 +10449,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10745,10 +10485,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H303" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -10779,10 +10517,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10817,10 +10553,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10855,10 +10589,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -10889,10 +10621,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10927,10 +10657,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10965,10 +10693,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10999,10 +10725,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -11029,10 +10753,8 @@
       </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11059,10 +10781,8 @@
       </c>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11097,10 +10817,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -11135,10 +10853,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -11169,10 +10885,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11207,10 +10921,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11245,10 +10957,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11283,10 +10993,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11317,10 +11025,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11351,10 +11057,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11381,10 +11085,8 @@
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11415,10 +11117,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11445,10 +11145,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11475,10 +11173,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11505,10 +11201,8 @@
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11543,10 +11237,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -11581,10 +11273,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11611,10 +11301,8 @@
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11637,10 +11325,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11663,10 +11349,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11689,10 +11373,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11715,10 +11397,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11753,10 +11433,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11779,10 +11457,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -11809,10 +11485,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11839,10 +11513,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11869,10 +11541,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11899,10 +11569,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11929,10 +11597,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11959,10 +11625,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11989,10 +11653,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12019,10 +11681,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12049,10 +11709,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12079,10 +11737,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12109,10 +11765,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12139,10 +11793,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12169,10 +11821,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12195,10 +11845,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12221,10 +11869,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12247,10 +11893,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12295,10 +11939,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12321,10 +11963,8 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -12359,10 +11999,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12397,10 +12035,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12431,10 +12067,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12457,10 +12091,8 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12487,10 +12119,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12513,10 +12143,8 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12543,10 +12171,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12581,10 +12207,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -12619,10 +12243,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -12649,10 +12271,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12679,10 +12299,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12713,10 +12331,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12743,10 +12359,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12773,10 +12387,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12811,10 +12423,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -12841,10 +12451,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -12879,10 +12487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -12909,10 +12515,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12939,10 +12543,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12969,10 +12571,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12999,10 +12599,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13029,10 +12627,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13067,10 +12663,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -13101,10 +12695,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -13131,10 +12723,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13161,10 +12751,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13191,10 +12779,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13221,10 +12807,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13251,10 +12835,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13285,10 +12867,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13319,10 +12899,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13353,10 +12931,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13379,10 +12955,8 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13413,10 +12987,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -13447,10 +13019,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13485,10 +13055,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13523,10 +13091,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -13561,10 +13127,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13599,10 +13163,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -13633,10 +13195,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -13667,10 +13227,8 @@
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -13697,10 +13255,8 @@
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13727,10 +13283,8 @@
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13753,10 +13307,8 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -13787,10 +13339,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13821,10 +13371,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13847,10 +13395,8 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -13885,10 +13431,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13911,10 +13455,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13941,10 +13483,8 @@
         </is>
       </c>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13967,10 +13507,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13993,10 +13531,8 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14023,10 +13559,8 @@
       </c>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14049,10 +13583,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14075,10 +13607,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14101,10 +13631,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -14131,102 +13659,140 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
-      <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H414" t="inlineStr">
         <is>
           <t>3</t>
@@ -14236,369 +13802,393 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr"/>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>54.2K</t>
+        </is>
+      </c>
       <c r="F418" t="inlineStr"/>
-      <c r="G418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>-3.6K</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>65.1%</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>8.8%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14610,139 +14200,139 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -14754,27 +14344,31 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
           <t>3</t>
@@ -14784,83 +14378,103 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
-      <c r="E433" t="inlineStr"/>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>€12.5B</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>€22.5B</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
           <t>3</t>
@@ -14870,97 +14484,101 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -14972,29 +14590,29 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -15006,29 +14624,29 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15040,31 +14658,23 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
           <t>3</t>
@@ -15074,209 +14684,173 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
           <t>3</t>
@@ -15284,35 +14858,27 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -15322,149 +14888,113 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -15476,29 +15006,33 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -15510,173 +15044,137 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -15688,29 +15186,29 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -15722,69 +15220,57 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>$1.88B</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15794,31 +15280,27 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15828,91 +15310,95 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-0.15%</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15922,27 +15408,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15952,25 +15442,21 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
@@ -15980,23 +15466,23 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
@@ -16006,29 +15492,25 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16036,27 +15518,31 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>CNY580B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr">
         <is>
-          <t>CNY690.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -16066,28 +15552,24 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
@@ -16096,29 +15578,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16126,29 +15604,29 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CNY2340B</t>
+          <t>1.760B</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -16158,167 +15636,143 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr"/>
-      <c r="C472" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>-15.4%</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16326,57 +15780,57 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
+          <t>Tuesday January 14 2025</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -16390,41 +15844,37 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -16434,111 +15884,115 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16548,95 +16002,87 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16646,29 +16092,29 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -16680,23 +16126,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16706,17 +16160,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -16732,17 +16186,17 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -16758,29 +16212,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>10.2%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16792,23 +16246,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16818,23 +16280,31 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16844,23 +16314,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16874,53 +16344,53 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -16932,23 +16402,23 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>2.53%</t>
-        </is>
-      </c>
+      <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
@@ -16958,23 +16428,23 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr"/>
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
@@ -16984,21 +16454,25 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
@@ -17010,29 +16484,29 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
           <t>3</t>
@@ -17040,49 +16514,73 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr"/>
-      <c r="C503" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Core PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr"/>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -17092,131 +16590,135 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
@@ -17228,7 +16730,7 @@
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -17240,25 +16742,21 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
@@ -17270,23 +16768,23 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
@@ -17298,25 +16796,21 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -17330,63 +16824,43 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -17398,23 +16872,31 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17424,23 +16906,31 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr"/>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -17450,29 +16940,29 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -17484,91 +16974,83 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>-5.83%</t>
-        </is>
-      </c>
+      <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
@@ -17582,53 +17064,53 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
@@ -17642,23 +17124,31 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H522" t="inlineStr">
         <is>
           <t>3</t>
@@ -17668,147 +17158,167 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H527" t="inlineStr">
         <is>
           <t>2</t>
@@ -17818,29 +17328,29 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -17852,29 +17362,29 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -17886,27 +17396,31 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17916,27 +17430,31 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17946,29 +17464,29 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17980,23 +17498,31 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -18006,27 +17532,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -18034,21 +17564,25 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr"/>
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -18062,113 +17596,129 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr"/>
-      <c r="C536" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Retail Price Index YoYDEC</t>
+        </is>
+      </c>
       <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
-      <c r="H536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr">
         <is>
           <t>3</t>
@@ -18178,29 +17728,29 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -18212,87 +17762,103 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr"/>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
       <c r="H541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>$4.42B</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H543" t="inlineStr">
         <is>
           <t>3</t>
@@ -18302,27 +17868,35 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H544" t="inlineStr">
         <is>
           <t>3</t>
@@ -18332,27 +17906,31 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H545" t="inlineStr">
         <is>
           <t>3</t>
@@ -18362,51 +17940,51 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
@@ -18416,11 +17994,7 @@
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
           <t>2</t>
@@ -18430,41 +18004,37 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -18474,115 +18044,95 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A551" t="inlineStr"/>
       <c r="B551" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr"/>
       <c r="B552" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
@@ -18598,31 +18148,27 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A553" t="inlineStr"/>
       <c r="B553" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -18632,31 +18178,27 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A554" t="inlineStr"/>
       <c r="B554" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -18666,772 +18208,22 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A555" t="inlineStr"/>
       <c r="B555" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>PPI Input YoYDEC</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>PPI Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>PPI Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>Retail Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>Retail Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr"/>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>10-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr"/>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr"/>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr"/>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr"/>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13691,10 +13691,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13725,10 +13723,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13759,10 +13755,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13793,10 +13787,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13827,10 +13819,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13865,10 +13855,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13903,10 +13891,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13937,10 +13923,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13971,10 +13955,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14005,10 +13987,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14039,10 +14019,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14077,10 +14055,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14115,10 +14091,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14153,10 +14127,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14191,10 +14163,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14229,10 +14199,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14263,10 +14231,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14301,10 +14267,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14335,10 +14299,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14369,10 +14331,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14407,10 +14367,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14441,10 +14399,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14475,10 +14431,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14513,10 +14467,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14547,10 +14499,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14581,10 +14531,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14615,10 +14563,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14649,10 +14595,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14675,10 +14619,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14705,10 +14647,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14735,10 +14675,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14761,10 +14699,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14791,10 +14727,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14821,10 +14755,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14851,10 +14783,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14881,10 +14811,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14911,10 +14839,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14963,10 +14889,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14997,10 +14921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15035,10 +14957,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15069,10 +14989,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15099,10 +15017,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15129,276 +15045,262 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15408,31 +15310,27 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15442,23 +15340,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15468,23 +15374,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15494,17 +15408,17 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -15520,31 +15434,23 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15554,23 +15460,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15580,23 +15494,31 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -15606,27 +15528,31 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -15636,23 +15562,23 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15666,49 +15592,53 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
@@ -15720,23 +15650,23 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
@@ -15746,23 +15676,23 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
@@ -15772,29 +15702,29 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15802,21 +15732,25 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -15830,21 +15764,41 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr"/>
-      <c r="C479" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15854,13 +15808,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15874,125 +15828,125 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16002,27 +15956,31 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -16032,25 +15990,21 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
+      <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
@@ -16062,23 +16016,23 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
@@ -16090,33 +16044,25 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A488" t="inlineStr"/>
       <c r="B488" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16126,57 +16072,45 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16186,23 +16120,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16212,29 +16154,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16246,29 +16188,29 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -16280,117 +16222,113 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
@@ -16404,21 +16342,25 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
@@ -16430,23 +16372,31 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
           <t>3</t>
@@ -16456,37 +16406,41 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -16496,49 +16450,53 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -16550,27 +16508,31 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H503" t="inlineStr">
         <is>
           <t>2</t>
@@ -16580,63 +16542,63 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -16648,27 +16610,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16678,27 +16644,31 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
@@ -16708,29 +16678,29 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -16742,23 +16712,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16768,27 +16746,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16796,25 +16778,33 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
-      <c r="G511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H511" t="inlineStr">
         <is>
           <t>3</t>
@@ -16824,43 +16814,59 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr"/>
-      <c r="C512" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr"/>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -16872,99 +16878,95 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G516" t="inlineStr"/>
       <c r="H516" t="inlineStr">
         <is>
           <t>3</t>
@@ -16974,87 +16976,99 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
           <t>3</t>
@@ -17064,27 +17078,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H520" t="inlineStr">
         <is>
           <t>3</t>
@@ -17094,27 +17116,35 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H521" t="inlineStr">
         <is>
           <t>3</t>
@@ -17124,29 +17154,29 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -17158,7 +17188,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -17168,55 +17198,51 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
           <t>2</t>
@@ -17226,41 +17252,37 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -17270,89 +17292,77 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17362,31 +17372,27 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
           <t>3</t>
@@ -17396,65 +17402,49 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17464,31 +17454,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17498,31 +17480,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -17532,31 +17506,23 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17564,25 +17530,21 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A535" t="inlineStr"/>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -17594,31 +17556,27 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
+      <c r="A536" t="inlineStr"/>
       <c r="B536" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -17628,95 +17586,79 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A537" t="inlineStr"/>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A539" t="inlineStr"/>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr">
@@ -17726,33 +17668,21 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A540" t="inlineStr"/>
       <c r="B540" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G540" t="inlineStr"/>
       <c r="H540" t="inlineStr">
         <is>
           <t>3</t>
@@ -17760,29 +17690,29 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
+      <c r="A541" t="inlineStr"/>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr"/>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>$ -23B</t>
+        </is>
+      </c>
       <c r="H541" t="inlineStr">
         <is>
           <t>3</t>
@@ -17790,35 +17720,27 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
+      <c r="A542" t="inlineStr"/>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$32.11B</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -17828,402 +17750,30 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr"/>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$69.95B</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$ 59B</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>10-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>30-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr"/>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr"/>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr"/>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr"/>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr"/>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr"/>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
-      <c r="H555" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H593"/>
+  <dimension ref="A1:H581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6233,10 +6233,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6259,10 +6257,8 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6297,10 +6293,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -6323,10 +6317,8 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6371,10 +6363,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -6405,10 +6395,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -6443,10 +6431,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -6477,10 +6463,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6511,10 +6495,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6549,10 +6531,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6583,10 +6563,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6617,10 +6595,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -6655,10 +6631,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6689,10 +6663,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6727,10 +6699,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6761,10 +6731,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6795,10 +6763,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -6833,10 +6799,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6871,10 +6835,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6909,10 +6871,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6947,10 +6907,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6985,10 +6943,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7023,10 +6979,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -7061,10 +7015,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7091,10 +7043,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7121,10 +7071,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7151,10 +7099,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7181,10 +7127,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7211,10 +7155,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7241,10 +7183,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7271,10 +7211,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7301,10 +7239,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7331,10 +7267,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7361,10 +7295,8 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7391,10 +7323,8 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -7421,10 +7351,8 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7455,10 +7383,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7493,10 +7419,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7531,10 +7455,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7565,10 +7487,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7599,10 +7519,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -7633,10 +7551,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7667,10 +7583,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7705,10 +7619,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7743,10 +7655,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7781,10 +7691,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7815,10 +7723,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7845,10 +7751,8 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7875,10 +7779,8 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7905,10 +7807,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7931,10 +7831,8 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7965,10 +7863,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7999,10 +7895,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8037,10 +7931,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -8075,10 +7967,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8113,10 +8003,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8147,10 +8035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8177,10 +8063,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8207,10 +8091,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8237,10 +8119,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8271,10 +8151,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8301,10 +8179,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8327,10 +8203,8 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8357,10 +8231,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8387,10 +8259,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8417,10 +8287,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8447,10 +8315,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8469,10 +8335,8 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8503,10 +8367,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8551,10 +8413,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8589,10 +8449,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -8627,10 +8485,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8661,10 +8517,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8695,10 +8549,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8725,10 +8577,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8755,10 +8605,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8785,10 +8633,8 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8815,10 +8661,8 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8853,10 +8697,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8887,10 +8729,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8925,10 +8765,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8963,10 +8801,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -9001,10 +8837,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9031,10 +8865,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9065,10 +8897,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9099,10 +8929,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9133,10 +8961,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9167,10 +8993,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -9201,10 +9025,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9235,10 +9057,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -9273,10 +9093,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9307,10 +9125,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9345,10 +9161,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9375,10 +9189,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9405,10 +9217,8 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9443,10 +9253,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -9481,10 +9289,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9519,10 +9325,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -9553,10 +9357,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9587,10 +9389,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9625,10 +9425,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9663,10 +9461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -9697,10 +9493,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9731,10 +9525,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9761,10 +9553,8 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9791,10 +9581,8 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9825,10 +9613,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9859,10 +9645,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9893,10 +9677,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -9919,10 +9701,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -9957,10 +9737,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9991,10 +9769,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10025,10 +9801,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10063,10 +9837,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10097,10 +9869,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -10131,10 +9901,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -10161,10 +9929,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10199,10 +9965,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H286" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -10237,10 +10001,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10275,10 +10037,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10309,10 +10069,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10343,10 +10101,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10377,10 +10133,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10411,10 +10165,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10445,10 +10197,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10475,10 +10225,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10505,10 +10253,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10531,10 +10277,8 @@
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10565,10 +10309,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10591,10 +10333,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -10617,10 +10357,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10661,10 +10399,8 @@
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10695,10 +10431,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10733,10 +10467,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10767,10 +10499,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10805,10 +10535,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H305" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -10839,10 +10567,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10877,10 +10603,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10915,10 +10639,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10949,10 +10671,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -10987,10 +10707,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -11025,10 +10743,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -11059,10 +10775,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11089,10 +10803,8 @@
       </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11119,10 +10831,8 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11157,10 +10867,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -11195,10 +10903,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -11229,10 +10935,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11267,10 +10971,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11305,10 +11007,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11343,10 +11043,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11377,10 +11075,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11411,10 +11107,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11441,10 +11135,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11475,10 +11167,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11505,10 +11195,8 @@
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11535,10 +11223,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11565,10 +11251,8 @@
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11603,10 +11287,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11641,10 +11323,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11671,10 +11351,8 @@
       </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11697,10 +11375,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11723,10 +11399,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11749,10 +11423,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11775,10 +11447,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11813,10 +11483,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -11839,10 +11507,8 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11869,10 +11535,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11899,10 +11563,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -11929,10 +11591,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11959,10 +11619,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11989,10 +11647,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12019,10 +11675,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12049,10 +11703,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12079,10 +11731,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12109,10 +11759,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12139,10 +11787,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12169,10 +11815,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12199,10 +11843,8 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12229,10 +11871,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12255,10 +11895,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12285,10 +11923,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12311,10 +11947,8 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12337,10 +11971,8 @@
       </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12385,10 +12017,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12411,10 +12041,8 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H356" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -12449,10 +12077,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12487,10 +12113,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12521,10 +12145,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12547,10 +12169,8 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12577,10 +12197,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12607,10 +12225,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12633,10 +12249,8 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12671,10 +12285,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H364" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -12709,10 +12321,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -12739,10 +12349,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12769,10 +12377,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12799,10 +12405,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12829,10 +12433,8 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12859,10 +12461,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12897,10 +12497,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H371" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -12927,10 +12525,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12965,10 +12561,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H373" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -12995,10 +12589,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13025,10 +12617,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13055,10 +12645,8 @@
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13085,10 +12673,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13115,10 +12701,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13153,10 +12737,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -13187,10 +12769,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -13217,10 +12797,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13247,10 +12825,8 @@
       </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13277,10 +12853,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13307,10 +12881,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13337,10 +12909,8 @@
       </c>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13371,10 +12941,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13405,10 +12973,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13439,10 +13005,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13465,10 +13029,8 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -13499,10 +13061,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -13533,10 +13093,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13571,10 +13129,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -13609,10 +13165,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -13647,10 +13201,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13685,10 +13237,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13719,10 +13269,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13753,10 +13301,8 @@
         </is>
       </c>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -13783,10 +13329,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13813,10 +13357,8 @@
       </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13839,10 +13381,8 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -13873,10 +13413,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13907,10 +13445,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13933,10 +13469,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -13971,10 +13505,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13997,10 +13529,8 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14027,10 +13557,8 @@
         </is>
       </c>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14053,10 +13581,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14079,10 +13605,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14109,10 +13633,8 @@
       </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14135,10 +13657,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14161,10 +13681,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -14187,10 +13705,8 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -14217,102 +13733,140 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr"/>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>12:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr"/>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-1.4%</t>
+        </is>
+      </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F417" t="inlineStr"/>
-      <c r="G417" t="inlineStr"/>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H417" t="inlineStr">
         <is>
           <t>3</t>
@@ -14322,199 +13876,207 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Household Spending MoMNOV</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Household Spending YoYNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -14526,63 +14088,67 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -14594,177 +14160,181 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -14776,29 +14346,33 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14810,27 +14384,31 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>3</t>
@@ -14840,83 +14418,103 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
           <t>3</t>
@@ -14926,97 +14524,101 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15028,29 +14630,29 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15062,29 +14664,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15096,29 +14698,29 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -15130,207 +14732,167 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Car Sales YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>-11.9%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -15340,37 +14902,29 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -15378,183 +14932,143 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -15566,207 +15080,175 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$97.44B</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -15778,69 +15260,61 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15850,31 +15324,27 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15884,31 +15354,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15918,87 +15384,95 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -16008,27 +15482,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16036,23 +15514,23 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Car Sales YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>-11.9%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
@@ -16062,29 +15540,25 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -16092,29 +15566,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16122,29 +15592,33 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G471" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H471" t="inlineStr">
         <is>
           <t>3</t>
@@ -16152,29 +15626,25 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
           <t>3</t>
@@ -16182,29 +15652,25 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -16214,197 +15680,173 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornDEC</t>
+        </is>
+      </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.342B</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
           <t>CN</t>
@@ -16412,287 +15854,279 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16702,31 +16136,27 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16736,23 +16166,31 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16762,23 +16200,31 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16788,17 +16234,17 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
@@ -16814,31 +16260,23 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16848,23 +16286,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16874,23 +16320,31 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16900,27 +16354,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16930,23 +16388,23 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
@@ -16960,49 +16418,53 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
@@ -17014,23 +16476,23 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
@@ -17040,23 +16502,23 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
@@ -17066,29 +16528,29 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
           <t>3</t>
@@ -17096,21 +16558,25 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
@@ -17124,21 +16590,41 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr"/>
-      <c r="C505" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -17148,145 +16634,149 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -17296,23 +16786,23 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
@@ -17326,27 +16816,31 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H512" t="inlineStr">
         <is>
           <t>3</t>
@@ -17356,25 +16850,21 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>0.734%</t>
-        </is>
-      </c>
+      <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
@@ -17386,31 +16876,27 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17418,33 +16904,25 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A515" t="inlineStr"/>
       <c r="B515" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -17454,49 +16932,45 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -17506,29 +16980,29 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -17540,29 +17014,29 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -17574,29 +17048,29 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -17608,57 +17082,57 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
+      <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H522" t="inlineStr">
         <is>
           <t>2</t>
@@ -17668,23 +17142,23 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
@@ -17698,21 +17172,25 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
@@ -17724,21 +17202,25 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
@@ -17750,27 +17232,31 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H526" t="inlineStr">
         <is>
           <t>3</t>
@@ -17780,7 +17266,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17790,179 +17276,191 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr"/>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17972,27 +17470,31 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -18002,29 +17504,29 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -18036,23 +17538,31 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H535" t="inlineStr">
         <is>
           <t>3</t>
@@ -18062,27 +17572,31 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H536" t="inlineStr">
         <is>
           <t>3</t>
@@ -18090,25 +17604,33 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr"/>
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H537" t="inlineStr">
         <is>
           <t>3</t>
@@ -18118,45 +17640,61 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>PPI Output YoYDEC</t>
+        </is>
+      </c>
       <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr">
         <is>
           <t>3</t>
@@ -18166,29 +17704,29 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -18200,151 +17738,155 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
@@ -18358,27 +17900,35 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H546" t="inlineStr">
         <is>
           <t>3</t>
@@ -18388,27 +17938,35 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H547" t="inlineStr">
         <is>
           <t>3</t>
@@ -18418,29 +17976,33 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -18452,17 +18014,17 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -18479,14 +18041,14 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -18496,99 +18058,91 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18598,55 +18152,47 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G553" t="inlineStr"/>
       <c r="H553" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
           <t>3</t>
@@ -18656,31 +18202,27 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
           <t>3</t>
@@ -18690,31 +18232,27 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
           <t>3</t>
@@ -18724,65 +18262,49 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G557" t="inlineStr"/>
       <c r="H557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>3</t>
@@ -18792,31 +18314,23 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
           <t>3</t>
@@ -18826,31 +18340,23 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
       <c r="H560" t="inlineStr">
         <is>
           <t>3</t>
@@ -18860,25 +18366,21 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
@@ -18890,29 +18392,29 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>$628.0B</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -18924,95 +18426,103 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H565" t="inlineStr">
         <is>
           <t>3</t>
@@ -19022,269 +18532,253 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr"/>
       <c r="G568" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
       <c r="E569" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr"/>
       <c r="G569" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
       <c r="G570" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="F571" t="inlineStr"/>
       <c r="G571" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G572" t="inlineStr"/>
       <c r="H572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A573" t="inlineStr"/>
       <c r="B573" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F573" t="inlineStr"/>
@@ -19296,175 +18790,163 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A574" t="inlineStr"/>
       <c r="B574" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A575" t="inlineStr"/>
       <c r="B575" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A576" t="inlineStr"/>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
       <c r="E576" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A577" t="inlineStr"/>
       <c r="B577" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr"/>
       <c r="G577" t="inlineStr"/>
       <c r="H577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A578" t="inlineStr"/>
       <c r="B578" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="inlineStr"/>
       <c r="H578" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A579" t="inlineStr"/>
       <c r="B579" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>$-37.84B</t>
+        </is>
+      </c>
       <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>$ -23B</t>
+        </is>
+      </c>
       <c r="H579" t="inlineStr">
         <is>
           <t>2</t>
@@ -19472,390 +18954,62 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A580" t="inlineStr"/>
       <c r="B580" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>$32.11B</t>
+        </is>
+      </c>
       <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr"/>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A581" t="inlineStr"/>
       <c r="B581" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>$69.95B</t>
+        </is>
+      </c>
       <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr"/>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>$616.5B</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr"/>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr"/>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr"/>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr"/>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr"/>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr"/>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr"/>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr"/>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr"/>
-      <c r="E593" t="inlineStr">
-        <is>
-          <t>$69.95B</t>
-        </is>
-      </c>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H587"/>
+  <dimension ref="A1:H567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13691,10 +13691,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13725,10 +13723,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13759,10 +13755,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13793,10 +13787,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13827,10 +13819,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13865,10 +13855,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13903,10 +13891,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13937,10 +13923,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13971,10 +13955,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14005,10 +13987,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14039,10 +14019,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14077,10 +14055,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14115,10 +14091,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14153,10 +14127,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14191,10 +14163,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14229,10 +14199,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14263,10 +14231,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14301,10 +14267,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14335,10 +14299,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14369,10 +14331,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14407,10 +14367,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14441,10 +14399,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14475,10 +14431,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14513,10 +14467,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14547,10 +14499,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14581,10 +14531,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14615,10 +14563,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14649,10 +14595,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14675,10 +14619,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14705,10 +14647,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14735,10 +14675,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14761,10 +14699,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14791,10 +14727,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14821,10 +14755,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14851,10 +14783,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14881,10 +14811,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14911,10 +14839,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14963,10 +14889,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14997,10 +14921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15035,10 +14957,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15069,10 +14989,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15099,10 +15017,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15129,30 +15045,44 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -15162,31 +15092,27 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15196,36 +15122,32 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15236,41 +15158,49 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15280,23 +15210,23 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -15310,65 +15240,57 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15378,23 +15300,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15404,23 +15334,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15430,17 +15368,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -15456,31 +15394,23 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15490,23 +15420,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15516,23 +15454,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15542,27 +15488,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15572,23 +15522,23 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -15602,49 +15552,53 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15656,23 +15610,23 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -15682,23 +15636,23 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -15708,29 +15662,29 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15738,21 +15692,25 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -15766,21 +15724,41 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15790,145 +15768,149 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -15938,23 +15920,23 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -15968,27 +15950,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -15998,25 +15984,21 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>0.734%</t>
-        </is>
-      </c>
+      <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -16028,31 +16010,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16060,33 +16038,25 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16096,49 +16066,45 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16148,29 +16114,29 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -16182,29 +16148,29 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -16216,29 +16182,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16250,57 +16216,57 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>2</t>
@@ -16310,23 +16276,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16340,21 +16306,25 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
@@ -16366,21 +16336,25 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
@@ -16392,27 +16366,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16422,7 +16400,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16432,83 +16410,87 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -16520,27 +16502,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>2</t>
@@ -16550,63 +16536,63 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -16618,27 +16604,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16648,27 +16638,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16678,29 +16672,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16712,23 +16706,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16738,27 +16740,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16766,25 +16772,33 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16794,43 +16808,59 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -16842,99 +16872,95 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -16944,87 +16970,99 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17034,27 +17072,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
           <t>3</t>
@@ -17064,27 +17110,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H520" t="inlineStr">
         <is>
           <t>3</t>
@@ -17094,29 +17148,29 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -17128,7 +17182,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17138,55 +17192,51 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
           <t>2</t>
@@ -17196,41 +17246,37 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17240,89 +17286,77 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17332,31 +17366,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17366,65 +17396,49 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17434,31 +17448,23 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17468,31 +17474,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17502,31 +17500,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -17536,27 +17526,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17566,29 +17560,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -17600,369 +17598,349 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -17974,25 +17952,21 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -18004,25 +17978,21 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -18034,25 +18004,21 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
@@ -18064,25 +18030,21 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
@@ -18094,25 +18056,21 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
@@ -18124,7 +18082,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18134,7 +18092,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -18143,14 +18101,14 @@
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18160,7 +18118,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -18176,59 +18134,75 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr"/>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18238,7 +18212,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -18254,41 +18228,41 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>$628.0B</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18298,25 +18272,17 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>3</t>
@@ -18324,25 +18290,21 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
@@ -18354,35 +18316,27 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -18392,788 +18346,196 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr"/>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr"/>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr"/>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr"/>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr"/>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr"/>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>$69.95B</t>
-        </is>
-      </c>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13695,10 +13695,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -13729,10 +13727,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13763,10 +13759,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13797,10 +13791,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13831,10 +13823,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13869,10 +13859,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H416" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -13907,10 +13895,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13941,10 +13927,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13975,10 +13959,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -14009,10 +13991,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14043,10 +14023,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -14081,10 +14059,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -14119,10 +14095,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -14157,10 +14131,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -14195,10 +14167,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -14233,10 +14203,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H426" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -14267,10 +14235,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -14305,10 +14271,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14339,10 +14303,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14373,10 +14335,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14411,10 +14371,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14445,10 +14403,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14479,10 +14435,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14517,10 +14471,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H434" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -14551,10 +14503,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14585,10 +14535,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14619,10 +14567,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14653,10 +14599,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14679,10 +14623,8 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14709,10 +14651,8 @@
       </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14739,10 +14679,8 @@
       </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14765,10 +14703,8 @@
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14795,10 +14731,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14825,10 +14759,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -14855,10 +14787,8 @@
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -14885,10 +14815,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -14915,10 +14843,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -14967,10 +14893,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -15001,10 +14925,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -15039,10 +14961,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -15073,10 +14993,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H452" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -15103,10 +15021,8 @@
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H453" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -15133,30 +15049,44 @@
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementDEC</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>$-367B</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -15166,31 +15096,27 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15200,36 +15126,32 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15240,41 +15162,49 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15284,23 +15214,23 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
@@ -15314,65 +15244,57 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15382,23 +15304,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15408,23 +15338,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15434,17 +15372,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -15460,31 +15398,23 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15494,23 +15424,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15520,23 +15458,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15546,27 +15492,31 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H469" t="inlineStr">
         <is>
           <t>3</t>
@@ -15576,23 +15526,23 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -15606,49 +15556,53 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
@@ -15660,23 +15614,23 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>-15.4%</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -15686,23 +15640,23 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -15712,29 +15666,29 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15742,21 +15696,25 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -15770,21 +15728,41 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15794,145 +15772,149 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -15942,23 +15924,23 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -15972,27 +15954,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16002,25 +15988,21 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>0.734%</t>
-        </is>
-      </c>
+      <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -16032,31 +16014,27 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16064,33 +16042,25 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16100,49 +16070,45 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16152,29 +16118,29 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -16186,29 +16152,29 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -16220,29 +16186,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -16254,57 +16220,57 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>€-157.39B</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>2</t>
@@ -16314,23 +16280,23 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
@@ -16344,21 +16310,25 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
@@ -16370,21 +16340,25 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
@@ -16396,27 +16370,31 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
@@ -16426,7 +16404,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16436,83 +16414,87 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -16524,27 +16506,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>2</t>
@@ -16554,63 +16540,63 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -16622,27 +16608,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16652,27 +16642,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16682,29 +16676,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16716,23 +16710,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16742,27 +16744,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -16770,25 +16776,33 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16798,43 +16812,59 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -16846,99 +16876,95 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -16948,87 +16974,99 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
+      <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17038,27 +17076,35 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
           <t>3</t>
@@ -17068,27 +17114,35 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H520" t="inlineStr">
         <is>
           <t>3</t>
@@ -17098,29 +17152,29 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -17132,7 +17186,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17142,55 +17196,51 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
           <t>2</t>
@@ -17200,41 +17250,37 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17244,89 +17290,77 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17336,31 +17370,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17370,65 +17400,49 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17438,31 +17452,23 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17472,31 +17478,23 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr">
         <is>
           <t>3</t>
@@ -17506,31 +17504,23 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -17540,27 +17530,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17570,29 +17564,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -17604,369 +17602,349 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -17978,25 +17956,21 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -18008,25 +17982,21 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -18038,25 +18008,21 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
@@ -18068,25 +18034,21 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
@@ -18098,25 +18060,21 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
@@ -18128,7 +18086,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18138,7 +18096,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -18147,14 +18105,14 @@
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18164,7 +18122,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -18180,59 +18138,75 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr"/>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr"/>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18242,7 +18216,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -18258,41 +18232,41 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>$628.0B</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18302,25 +18276,17 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>3</t>
@@ -18328,25 +18294,21 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F559" t="inlineStr"/>
@@ -18358,35 +18320,27 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -18396,876 +18350,194 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F566" t="inlineStr"/>
       <c r="G566" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr"/>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr"/>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>5-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>3.146%</t>
-        </is>
-      </c>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr"/>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr"/>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr"/>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr"/>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr"/>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr"/>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr">
-        <is>
-          <t>$69.95B</t>
-        </is>
-      </c>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H590" t="inlineStr">
         <is>
           <t>3</t>
         </is>
